--- a/Plan/Data_추출파일/001.기초데이터.xlsx
+++ b/Plan/Data_추출파일/001.기초데이터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/Funigloo/1. 티니핑 프로젝트/Tiniffing_plan/Plan/Data_추출파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF1E5CC-E670-44CC-9BD8-B0696EDAF1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{841B293A-BDE5-49AB-9A8B-38A55C3C89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B7941C0-A11E-43CA-A914-CC47C5B5AD51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A69CC44D-9B3D-4D5A-B35E-7342E4A1D127}"/>
   </bookViews>
   <sheets>
     <sheet name="001.기초데이터" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>data</t>
   </si>
   <si>
-    <t>60000:120000:180000</t>
+    <t>30:60:90</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -405,16 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7F401-B0DB-49F1-A761-5EE9792FFA9B}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C871F61-6E32-42CA-99BD-02B981AF37EF}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,44 +422,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/001.기초데이터.xlsx
+++ b/Plan/Data_추출파일/001.기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{841B293A-BDE5-49AB-9A8B-38A55C3C89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{903866FD-1DA2-442F-B6A1-D52642CC84E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A69CC44D-9B3D-4D5A-B35E-7342E4A1D127}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC72F780-DE72-4858-AEFE-FEB090E271C2}"/>
   </bookViews>
   <sheets>
     <sheet name="001.기초데이터" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>30:60:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,8 +403,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C871F61-6E32-42CA-99BD-02B981AF37EF}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960D331-573D-4929-9A21-22BF1D44BCBA}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
@@ -442,48 +440,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>120</v>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/001.기초데이터.xlsx
+++ b/Plan/Data_추출파일/001.기초데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{903866FD-1DA2-442F-B6A1-D52642CC84E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F70F31-2DE3-4787-B8B5-817B6C5C0C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC72F780-DE72-4858-AEFE-FEB090E271C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B69BC9C5-2A64-4C6E-86C3-A02081074E30}"/>
   </bookViews>
   <sheets>
     <sheet name="001.기초데이터" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960D331-573D-4929-9A21-22BF1D44BCBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7961A-9FDF-4A54-81AE-8DCA870D4E3B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Data_추출파일/001.기초데이터.xlsx
+++ b/Plan/Data_추출파일/001.기초데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F70F31-2DE3-4787-B8B5-817B6C5C0C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8796E3-19F4-4494-81D7-2E47D9F8FE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B69BC9C5-2A64-4C6E-86C3-A02081074E30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29445E18-4450-444C-A00A-EAAD1DF0588D}"/>
   </bookViews>
   <sheets>
     <sheet name="001.기초데이터" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7961A-9FDF-4A54-81AE-8DCA870D4E3B}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C46CEEB-2B68-4F44-BFBF-6E05DFA0CE6D}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
@@ -452,6 +452,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
